--- a/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T14:06:21+00:00</t>
+    <t>2024-10-09T16:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-09T16:41:58+00:00</t>
+    <t>2024-10-10T14:44:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T14:44:21+00:00</t>
+    <t>2024-10-15T07:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T07:10:04+00:00</t>
+    <t>2024-10-31T13:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/add-capability-statement/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T13:33:33+00:00</t>
+    <t>2024-11-04T16:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
